--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_EVE.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: September, 2021        Evaluation Date: September 30, 2021</t>
   </si>
   <si>
-    <t>Printed on: 11/02/21 4:22:49 PM</t>
+    <t>Printed on: 01/06/22 4:52:16 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -4866,19 +4866,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="253">
-        <v>-197071.74972571107</v>
+        <v>-197071.88122358581</v>
       </c>
       <c r="F10" s="249">
-        <v>693.391910603299</v>
+        <v>693.6904053579201</v>
       </c>
       <c r="G10" s="249">
-        <v>-0.35061381640169487</v>
+        <v>-0.35076398770735073</v>
       </c>
       <c r="H10" s="249">
-        <v>-128.99821079850031</v>
+        <v>-128.9984079093413</v>
       </c>
       <c r="I10" s="249">
-        <v>175.64839144018612</v>
+        <v>175.69428284822533</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4886,19 +4886,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="253">
-        <v>-197137.08444874003</v>
+        <v>-197137.19713553961</v>
       </c>
       <c r="F11" s="249">
-        <v>628.05718757433351</v>
+        <v>628.374493404117</v>
       </c>
       <c r="G11" s="249">
-        <v>-0.31757729515817124</v>
+        <v>-0.31773705009843684</v>
       </c>
       <c r="H11" s="249">
-        <v>-129.21563887495475</v>
+        <v>-129.21580817784047</v>
       </c>
       <c r="I11" s="249">
-        <v>153.9055837947422</v>
+        <v>153.9542559983077</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4906,19 +4906,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="253">
-        <v>-197325.98869713489</v>
+        <v>-197326.42460554524</v>
       </c>
       <c r="F12" s="249">
-        <v>439.15293917947565</v>
+        <v>439.14702339848736</v>
       </c>
       <c r="G12" s="249">
-        <v>-0.22205780834069738</v>
+        <v>-0.22205433422073784</v>
       </c>
       <c r="H12" s="249">
-        <v>-129.72428703263333</v>
+        <v>-129.7249453577279</v>
       </c>
       <c r="I12" s="249">
-        <v>103.04076802688434</v>
+        <v>103.0405380095645</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4926,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="265">
-        <v>-197765.14163631437</v>
+        <v>-197765.57162894373</v>
       </c>
       <c r="F13" s="266">
         <v>0</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="266">
-        <v>-130.75469471290217</v>
+        <v>-130.75535073782356</v>
       </c>
       <c r="I13" s="266">
         <v>0</v>
@@ -4946,19 +4946,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="253">
-        <v>-198333.9274826383</v>
+        <v>-198334.40071836475</v>
       </c>
       <c r="F14" s="249">
-        <v>-568.785846323939</v>
+        <v>-568.82908942102222</v>
       </c>
       <c r="G14" s="249">
-        <v>0.28760672463194925</v>
+        <v>0.2876279651385853</v>
       </c>
       <c r="H14" s="249">
-        <v>-132.09006359900957</v>
+        <v>-132.0907950893195</v>
       </c>
       <c r="I14" s="249">
-        <v>-133.53688861073971</v>
+        <v>-133.54443514959502</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4966,19 +4966,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="253">
-        <v>-198996.55875006059</v>
+        <v>-198997.10827371091</v>
       </c>
       <c r="F15" s="249">
-        <v>-1231.4171137462254</v>
+        <v>-1231.536644767184</v>
       </c>
       <c r="G15" s="249">
-        <v>0.62266641307838444</v>
+        <v>0.62272550000656635</v>
       </c>
       <c r="H15" s="249">
-        <v>-133.5805942599801</v>
+        <v>-133.58145589343732</v>
       </c>
       <c r="I15" s="249">
-        <v>-282.5899547077932</v>
+        <v>-282.61051556137733</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4986,19 +4986,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="253">
-        <v>-200635.94784696968</v>
+        <v>-200636.53635310978</v>
       </c>
       <c r="F16" s="249">
-        <v>-2870.8062106553116</v>
+        <v>-2870.9647241660568</v>
       </c>
       <c r="G16" s="249">
-        <v>1.4516239752375872</v>
+        <v>1.4517009712654558</v>
       </c>
       <c r="H16" s="249">
-        <v>-137.1088494479279</v>
+        <v>-137.10980302817558</v>
       </c>
       <c r="I16" s="249">
-        <v>-635.41547350257247</v>
+        <v>-635.44522903520283</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5006,19 +5006,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="253">
-        <v>-202430.54559270846</v>
+        <v>-202431.19599011578</v>
       </c>
       <c r="F17" s="249">
-        <v>-4665.40395639409</v>
+        <v>-4665.6243611720565</v>
       </c>
       <c r="G17" s="249">
-        <v>2.35906283473033</v>
+        <v>2.3591691530242187</v>
       </c>
       <c r="H17" s="249">
-        <v>-140.98443676479391</v>
+        <v>-140.98552836822626</v>
       </c>
       <c r="I17" s="249">
-        <v>-1022.9742051891741</v>
+        <v>-1023.0177630402706</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5026,19 +5026,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="253">
-        <v>-204305.382757402</v>
+        <v>-204306.04177029053</v>
       </c>
       <c r="F18" s="249">
-        <v>-6540.2411210876307</v>
+        <v>-6540.4701413467992</v>
       </c>
       <c r="G18" s="249">
-        <v>3.3070747791918693</v>
+        <v>3.3071833926778269</v>
       </c>
       <c r="H18" s="249">
-        <v>-145.11056134340149</v>
+        <v>-145.11170864389092</v>
       </c>
       <c r="I18" s="249">
-        <v>-1435.5866630499313</v>
+        <v>-1435.6357906067372</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5046,19 +5046,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="253">
-        <v>-200632.06166218672</v>
+        <v>-200632.77175724279</v>
       </c>
       <c r="F19" s="249">
-        <v>-2866.9200258723577</v>
+        <v>-2867.2001282990677</v>
       </c>
       <c r="G19" s="249">
-        <v>1.4496589247990726</v>
+        <v>1.449797406435652</v>
       </c>
       <c r="H19" s="249">
-        <v>-137.43125745049142</v>
+        <v>-137.43241234330313</v>
       </c>
       <c r="I19" s="249">
-        <v>-667.6562737589245</v>
+        <v>-667.70616054795789</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5091,7 +5091,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="267">
-        <v>-1.3075469471290218</v>
+        <v>-1.3075535073782354</v>
       </c>
       <c r="F22" s="254" t="s">
         <v>27</v>
@@ -5103,7 +5103,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="267">
-        <v>-1.3710884944792789</v>
+        <v>-1.3710980302817557</v>
       </c>
       <c r="F23" s="254" t="s">
         <v>29</v>
@@ -5127,7 +5127,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="268">
-        <v>-0.57047168062713038</v>
+        <v>-0.57041483016992867</v>
       </c>
       <c r="F25" s="254" t="s">
         <v>34</v>
@@ -5147,52 +5147,52 @@
     </row>
     <row r="29" ht="9.95" customHeight="1">
       <c r="H29" s="249">
-        <v>152770.9171358539</v>
+        <v>152770.78563797919</v>
       </c>
     </row>
     <row r="30" ht="9.95" customHeight="1">
       <c r="H30" s="249">
-        <v>152564.41570475427</v>
+        <v>152564.30301795469</v>
       </c>
     </row>
     <row r="31" ht="9.95" customHeight="1">
       <c r="H31" s="249">
-        <v>152111.83133925858</v>
+        <v>152111.39543084821</v>
       </c>
     </row>
     <row r="32" ht="9.95" customHeight="1">
       <c r="H32" s="249">
-        <v>151248.9796795036</v>
+        <v>151248.54968687423</v>
       </c>
     </row>
     <row r="33" ht="9.95" customHeight="1">
       <c r="H33" s="249">
-        <v>150150.5276617381</v>
+        <v>150150.05442601166</v>
       </c>
     </row>
     <row r="34" ht="9.95" customHeight="1">
       <c r="H34" s="249">
-        <v>148971.1584624075</v>
+        <v>148970.60893875719</v>
       </c>
     </row>
     <row r="35" ht="9.95" customHeight="1">
       <c r="H35" s="249">
-        <v>146333.33198756696</v>
+        <v>146332.74348142685</v>
       </c>
     </row>
     <row r="36" ht="9.95" customHeight="1">
       <c r="H36" s="249">
-        <v>143583.611239605</v>
+        <v>143582.96084219767</v>
       </c>
     </row>
     <row r="37" ht="9.95" customHeight="1">
       <c r="H37" s="249">
-        <v>140792.91049940675</v>
+        <v>140792.25148651825</v>
       </c>
     </row>
     <row r="38" ht="9.95" customHeight="1">
       <c r="H38" s="249">
-        <v>145987.21235921379</v>
+        <v>145986.50226415772</v>
       </c>
     </row>
     <row r="39" ht="9.95" customHeight="1">
@@ -5396,34 +5396,34 @@
         <v>9.54962354551677</v>
       </c>
       <c r="D7" s="277">
-        <v>152770.9171358539</v>
+        <v>152770.78563797919</v>
       </c>
       <c r="E7" s="277">
-        <v>152564.41570475427</v>
+        <v>152564.30301795469</v>
       </c>
       <c r="F7" s="277">
-        <v>152111.83133925858</v>
+        <v>152111.39543084821</v>
       </c>
       <c r="G7" s="278">
-        <v>151248.9796795036</v>
+        <v>151248.54968687423</v>
       </c>
       <c r="H7" s="277">
-        <v>150150.5276617381</v>
+        <v>150150.05442601166</v>
       </c>
       <c r="I7" s="277">
-        <v>148971.1584624075</v>
+        <v>148970.60893875719</v>
       </c>
       <c r="J7" s="277">
-        <v>146333.33198756696</v>
+        <v>146332.74348142685</v>
       </c>
       <c r="K7" s="277">
-        <v>143583.611239605</v>
+        <v>143582.96084219767</v>
       </c>
       <c r="L7" s="277">
-        <v>140792.91049940675</v>
+        <v>140792.25148651825</v>
       </c>
       <c r="M7" s="277">
-        <v>145987.21235921379</v>
+        <v>145986.50226415772</v>
       </c>
       <c r="N7" s="277">
         <v>139189</v>
@@ -5432,13 +5432,13 @@
         <v>5.2675021901823005</v>
       </c>
       <c r="P7" s="275">
-        <v>108.66067877297301</v>
+        <v>108.6603698458097</v>
       </c>
       <c r="Q7" s="275">
-        <v>1.4457272079217889</v>
+        <v>1.4456586048673372</v>
       </c>
       <c r="R7" s="275">
-        <v>-0.61002792412723028</v>
+        <v>-0.6079586418202777</v>
       </c>
     </row>
     <row r="8">
@@ -5452,34 +5452,34 @@
         <v>9.54962354551677</v>
       </c>
       <c r="D8" s="277">
-        <v>152770.9171358539</v>
+        <v>152770.78563797919</v>
       </c>
       <c r="E8" s="277">
-        <v>152564.41570475427</v>
+        <v>152564.30301795469</v>
       </c>
       <c r="F8" s="277">
-        <v>152111.83133925858</v>
+        <v>152111.39543084821</v>
       </c>
       <c r="G8" s="278">
-        <v>151248.9796795036</v>
+        <v>151248.54968687423</v>
       </c>
       <c r="H8" s="277">
-        <v>150150.5276617381</v>
+        <v>150150.05442601166</v>
       </c>
       <c r="I8" s="277">
-        <v>148971.1584624075</v>
+        <v>148970.60893875719</v>
       </c>
       <c r="J8" s="277">
-        <v>146333.33198756696</v>
+        <v>146332.74348142685</v>
       </c>
       <c r="K8" s="277">
-        <v>143583.611239605</v>
+        <v>143582.96084219767</v>
       </c>
       <c r="L8" s="277">
-        <v>140792.91049940675</v>
+        <v>140792.25148651825</v>
       </c>
       <c r="M8" s="277">
-        <v>145987.21235921379</v>
+        <v>145986.50226415772</v>
       </c>
       <c r="N8" s="277">
         <v>139189</v>
@@ -5488,13 +5488,13 @@
         <v>5.2675021901823005</v>
       </c>
       <c r="P8" s="275">
-        <v>108.66067877297301</v>
+        <v>108.6603698458097</v>
       </c>
       <c r="Q8" s="275">
-        <v>1.4457272079217889</v>
+        <v>1.4456586048673372</v>
       </c>
       <c r="R8" s="275">
-        <v>-0.61002792412723028</v>
+        <v>-0.6079586418202777</v>
       </c>
     </row>
     <row r="9">
@@ -5564,34 +5564,34 @@
         <v>7.520876112251881</v>
       </c>
       <c r="D10" s="282">
-        <v>-197071.74972571107</v>
+        <v>-197071.88122358581</v>
       </c>
       <c r="E10" s="282">
-        <v>-197137.08444874003</v>
+        <v>-197137.19713553961</v>
       </c>
       <c r="F10" s="282">
-        <v>-197325.98869713489</v>
+        <v>-197326.42460554524</v>
       </c>
       <c r="G10" s="283">
-        <v>-197765.14163631437</v>
+        <v>-197765.57162894373</v>
       </c>
       <c r="H10" s="282">
-        <v>-198333.9274826383</v>
+        <v>-198334.40071836475</v>
       </c>
       <c r="I10" s="282">
-        <v>-198996.55875006059</v>
+        <v>-198997.10827371091</v>
       </c>
       <c r="J10" s="282">
-        <v>-200635.94784696968</v>
+        <v>-200636.53635310978</v>
       </c>
       <c r="K10" s="282">
-        <v>-202430.54559270846</v>
+        <v>-202431.19599011578</v>
       </c>
       <c r="L10" s="282">
-        <v>-204305.382757402</v>
+        <v>-204306.04177029053</v>
       </c>
       <c r="M10" s="282">
-        <v>-200632.06166218672</v>
+        <v>-200632.77175724279</v>
       </c>
       <c r="N10" s="282">
         <v>14750</v>
@@ -5600,13 +5600,13 @@
         <v>5.2675021901823005</v>
       </c>
       <c r="P10" s="280">
-        <v>-1340.8163331424037</v>
+        <v>-1340.8192483466705</v>
       </c>
       <c r="Q10" s="280">
-        <v>-0.57047168062713038</v>
+        <v>-0.57041483016992867</v>
       </c>
       <c r="R10" s="280">
-        <v>0.33393660288771032</v>
+        <v>0.33235199013980854</v>
       </c>
     </row>
     <row r="12">
@@ -5810,34 +5810,34 @@
         <v>1.3305954825462012</v>
       </c>
       <c r="D16" s="241">
-        <v>3257.4916794701</v>
+        <v>3257.49038882196</v>
       </c>
       <c r="E16" s="241">
-        <v>3257.4916794701</v>
+        <v>3257.49038882196</v>
       </c>
       <c r="F16" s="241">
-        <v>3251.67971277445</v>
+        <v>3251.67842221314</v>
       </c>
       <c r="G16" s="273">
-        <v>3234.99801265673</v>
+        <v>3234.99799955292</v>
       </c>
       <c r="H16" s="241">
-        <v>3213.82243172852</v>
+        <v>3213.82301228696</v>
       </c>
       <c r="I16" s="241">
-        <v>3193.0030037394904</v>
+        <v>3193.00416187399</v>
       </c>
       <c r="J16" s="241">
-        <v>3152.40211201595</v>
+        <v>3152.40437857319</v>
       </c>
       <c r="K16" s="241">
-        <v>3113.13624556403</v>
+        <v>3113.13956069452</v>
       </c>
       <c r="L16" s="241">
-        <v>3075.14922943952</v>
+        <v>3075.15353611697</v>
       </c>
       <c r="M16" s="241">
-        <v>3129.90859272348</v>
+        <v>3129.9109504061603</v>
       </c>
       <c r="N16" s="241">
         <v>3235</v>
@@ -5846,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="242">
-        <v>99.999938567441433</v>
+        <v>99.999938162377745</v>
       </c>
       <c r="Q16" s="242">
-        <v>1.2968881603854587</v>
+        <v>1.2968509576991534</v>
       </c>
       <c r="R16" s="242">
-        <v>-0.42381897402615781</v>
+        <v>-0.42382101271568229</v>
       </c>
     </row>
     <row r="17" outlineLevel="2">
@@ -5922,34 +5922,34 @@
         <v>21.790554414784395</v>
       </c>
       <c r="D18" s="241">
-        <v>1043.07055137854</v>
+        <v>1043.08118000418</v>
       </c>
       <c r="E18" s="241">
-        <v>1037.61430605931</v>
+        <v>1037.6276526486001</v>
       </c>
       <c r="F18" s="241">
-        <v>1025.89782969159</v>
+        <v>1025.89983684138</v>
       </c>
       <c r="G18" s="273">
-        <v>1006.9981025327099</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="H18" s="241">
-        <v>984.650501391233</v>
+        <v>984.649426549586</v>
       </c>
       <c r="I18" s="241">
-        <v>961.448134210636</v>
+        <v>961.446049316835</v>
       </c>
       <c r="J18" s="241">
-        <v>913.86834773731391</v>
+        <v>913.865600926551</v>
       </c>
       <c r="K18" s="241">
-        <v>867.988080602134</v>
+        <v>867.986206877522</v>
       </c>
       <c r="L18" s="241">
-        <v>823.786262472023</v>
+        <v>823.787284831749</v>
       </c>
       <c r="M18" s="241">
-        <v>926.949061472825</v>
+        <v>926.944720792409</v>
       </c>
       <c r="N18" s="241">
         <v>1007</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="242">
-        <v>99.999811572265131</v>
+        <v>99.999812004725911</v>
       </c>
       <c r="Q18" s="242">
-        <v>4.2784918426199425</v>
+        <v>4.2788856840432672</v>
       </c>
       <c r="R18" s="242">
-        <v>-0.96140652913224944</v>
+        <v>-0.96166870004654359</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
@@ -5978,34 +5978,34 @@
         <v>21.790554414784395</v>
       </c>
       <c r="D19" s="287">
-        <v>1043.07055137854</v>
+        <v>1043.08118000418</v>
       </c>
       <c r="E19" s="287">
-        <v>1037.61430605931</v>
+        <v>1037.6276526486001</v>
       </c>
       <c r="F19" s="287">
-        <v>1025.89782969159</v>
+        <v>1025.89983684138</v>
       </c>
       <c r="G19" s="288">
-        <v>1006.9981025327099</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="H19" s="287">
-        <v>984.650501391233</v>
+        <v>984.649426549586</v>
       </c>
       <c r="I19" s="287">
-        <v>961.448134210636</v>
+        <v>961.446049316835</v>
       </c>
       <c r="J19" s="287">
-        <v>913.86834773731391</v>
+        <v>913.865600926551</v>
       </c>
       <c r="K19" s="287">
-        <v>867.988080602134</v>
+        <v>867.986206877522</v>
       </c>
       <c r="L19" s="287">
-        <v>823.786262472023</v>
+        <v>823.787284831749</v>
       </c>
       <c r="M19" s="287">
-        <v>926.949061472825</v>
+        <v>926.944720792409</v>
       </c>
       <c r="N19" s="287">
         <v>1007</v>
@@ -6014,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="286">
-        <v>99.999811572265131</v>
+        <v>99.999812004725911</v>
       </c>
       <c r="Q19" s="286">
-        <v>4.2784918426199425</v>
+        <v>4.2788856840432672</v>
       </c>
       <c r="R19" s="286">
-        <v>-0.96140652913224944</v>
+        <v>-0.96166870004654359</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
@@ -6034,34 +6034,34 @@
         <v>20.084873374401095</v>
       </c>
       <c r="D20" s="241">
-        <v>145.65204276573599</v>
+        <v>145.652586188674</v>
       </c>
       <c r="E20" s="241">
-        <v>145.293996889661</v>
+        <v>145.294965141992</v>
       </c>
       <c r="F20" s="241">
-        <v>145.051705390889</v>
+        <v>145.052077158905</v>
       </c>
       <c r="G20" s="273">
-        <v>144.25551296196798</v>
+        <v>144.255511987425</v>
       </c>
       <c r="H20" s="241">
-        <v>143.14585623871102</v>
+        <v>143.145628849528</v>
       </c>
       <c r="I20" s="241">
-        <v>141.995805178454</v>
+        <v>141.995349924925</v>
       </c>
       <c r="J20" s="241">
-        <v>139.586867218283</v>
+        <v>139.586410021802</v>
       </c>
       <c r="K20" s="241">
-        <v>137.080203374121</v>
+        <v>137.080004385503</v>
       </c>
       <c r="L20" s="241">
-        <v>134.51515326241702</v>
+        <v>134.514985038271</v>
       </c>
       <c r="M20" s="241">
-        <v>138.59887116286302</v>
+        <v>138.598428696197</v>
       </c>
       <c r="N20" s="241">
         <v>144</v>
@@ -6070,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="242">
-        <v>100.17743955692221</v>
+        <v>100.17743888015625</v>
       </c>
       <c r="Q20" s="242">
-        <v>1.5296814502241496</v>
+        <v>1.5301643070334261</v>
       </c>
       <c r="R20" s="242">
-        <v>-0.28163895961734581</v>
+        <v>-0.28079646747624276</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
@@ -6090,34 +6090,34 @@
         <v>20.084873374401095</v>
       </c>
       <c r="D21" s="287">
-        <v>145.65204276573599</v>
+        <v>145.652586188674</v>
       </c>
       <c r="E21" s="287">
-        <v>145.293996889661</v>
+        <v>145.294965141992</v>
       </c>
       <c r="F21" s="287">
-        <v>145.051705390889</v>
+        <v>145.052077158905</v>
       </c>
       <c r="G21" s="288">
-        <v>144.25551296196798</v>
+        <v>144.255511987425</v>
       </c>
       <c r="H21" s="287">
-        <v>143.14585623871102</v>
+        <v>143.145628849528</v>
       </c>
       <c r="I21" s="287">
-        <v>141.995805178454</v>
+        <v>141.995349924925</v>
       </c>
       <c r="J21" s="287">
-        <v>139.586867218283</v>
+        <v>139.586410021802</v>
       </c>
       <c r="K21" s="287">
-        <v>137.080203374121</v>
+        <v>137.080004385503</v>
       </c>
       <c r="L21" s="287">
-        <v>134.51515326241702</v>
+        <v>134.514985038271</v>
       </c>
       <c r="M21" s="287">
-        <v>138.59887116286302</v>
+        <v>138.598428696197</v>
       </c>
       <c r="N21" s="287">
         <v>144</v>
@@ -6126,13 +6126,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="286">
-        <v>100.17743955692221</v>
+        <v>100.17743888015625</v>
       </c>
       <c r="Q21" s="286">
-        <v>1.5296814502241496</v>
+        <v>1.5301643070334261</v>
       </c>
       <c r="R21" s="286">
-        <v>-0.28163895961734581</v>
+        <v>-0.28079646747624276</v>
       </c>
     </row>
     <row r="22" outlineLevel="2">
@@ -6146,34 +6146,34 @@
         <v>21.577002053388089</v>
       </c>
       <c r="D22" s="287">
-        <v>1188.7225941442759</v>
+        <v>1188.7337661928539</v>
       </c>
       <c r="E22" s="287">
-        <v>1182.9083029489711</v>
+        <v>1182.9226177905921</v>
       </c>
       <c r="F22" s="287">
-        <v>1170.9495350824791</v>
+        <v>1170.9519140002851</v>
       </c>
       <c r="G22" s="288">
-        <v>1151.2536154946781</v>
+        <v>1151.253618875015</v>
       </c>
       <c r="H22" s="287">
-        <v>1127.7963576299439</v>
+        <v>1127.7950553991141</v>
       </c>
       <c r="I22" s="287">
-        <v>1103.44393938909</v>
+        <v>1103.4413992417599</v>
       </c>
       <c r="J22" s="287">
-        <v>1053.4552149555971</v>
+        <v>1053.4520109483531</v>
       </c>
       <c r="K22" s="287">
-        <v>1005.068283976255</v>
+        <v>1005.066211263025</v>
       </c>
       <c r="L22" s="287">
-        <v>958.30141573444007</v>
+        <v>958.30226987001993</v>
       </c>
       <c r="M22" s="287">
-        <v>1065.5479326356881</v>
+        <v>1065.5431494886061</v>
       </c>
       <c r="N22" s="287">
         <v>1151</v>
@@ -6182,13 +6182,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="286">
-        <v>100.02203436096248</v>
+        <v>100.02203465464945</v>
       </c>
       <c r="Q22" s="286">
-        <v>3.9340576989583176</v>
+        <v>3.9344626976131929</v>
       </c>
       <c r="R22" s="286">
-        <v>-0.87622962448567043</v>
+        <v>-0.87635337864635687</v>
       </c>
     </row>
     <row r="23" outlineLevel="1">
@@ -6202,34 +6202,34 @@
         <v>6.0752908966461332</v>
       </c>
       <c r="D23" s="287">
-        <v>4966.7036042506152</v>
+        <v>4966.7134856510538</v>
       </c>
       <c r="E23" s="287">
-        <v>4960.8893130553115</v>
+        <v>4960.9023372487918</v>
       </c>
       <c r="F23" s="287">
-        <v>4942.3699771164847</v>
+        <v>4942.3710654729812</v>
       </c>
       <c r="G23" s="288">
-        <v>4903.518979936186</v>
+        <v>4903.5189702127127</v>
       </c>
       <c r="H23" s="287">
-        <v>4855.7976108888015</v>
+        <v>4855.7968892164117</v>
       </c>
       <c r="I23" s="287">
-        <v>4807.5890760904285</v>
+        <v>4807.5876940776</v>
       </c>
       <c r="J23" s="287">
-        <v>4711.077272716052</v>
+        <v>4711.0763352660479</v>
       </c>
       <c r="K23" s="287">
-        <v>4617.6969143192737</v>
+        <v>4617.6981567365337</v>
       </c>
       <c r="L23" s="287">
-        <v>4527.4020973589049</v>
+        <v>4527.4072581719347</v>
       </c>
       <c r="M23" s="287">
-        <v>4697.3521016326486</v>
+        <v>4697.3496761682463</v>
       </c>
       <c r="N23" s="287">
         <v>4897.9999999999991</v>
@@ -6238,13 +6238,13 @@
         <v>5.2675021901823005</v>
       </c>
       <c r="P23" s="286">
-        <v>100.00513429452847</v>
+        <v>100.00513409600922</v>
       </c>
       <c r="Q23" s="286">
-        <v>1.905817150646637</v>
+        <v>1.9058876959814259</v>
       </c>
       <c r="R23" s="286">
-        <v>-0.49032403013954523</v>
+        <v>-0.49035443070857243</v>
       </c>
     </row>
     <row r="24" outlineLevel="2">
@@ -6538,34 +6538,34 @@
         <v>16.013689253935659</v>
       </c>
       <c r="D29" s="241">
-        <v>65811.903916253184</v>
+        <v>65811.762536978014</v>
       </c>
       <c r="E29" s="241">
-        <v>65883.449772591135</v>
+        <v>65883.324061598047</v>
       </c>
       <c r="F29" s="241">
-        <v>65814.1786115775</v>
+        <v>65813.741614810642</v>
       </c>
       <c r="G29" s="273">
-        <v>65484.814147421886</v>
+        <v>65484.384164516</v>
       </c>
       <c r="H29" s="241">
-        <v>64994.024638046161</v>
+        <v>64993.552123992107</v>
       </c>
       <c r="I29" s="241">
-        <v>64405.568221713125</v>
+        <v>64405.020080075657</v>
       </c>
       <c r="J29" s="241">
-        <v>62901.312913565307</v>
+        <v>62900.72534487518</v>
       </c>
       <c r="K29" s="241">
-        <v>61222.595316846091</v>
+        <v>61221.943677021496</v>
       </c>
       <c r="L29" s="241">
-        <v>59445.720083711589</v>
+        <v>59445.055910010065</v>
       </c>
       <c r="M29" s="241">
-        <v>62683.711997497296</v>
+        <v>62683.00432790559</v>
       </c>
       <c r="N29" s="241">
         <v>59409</v>
@@ -6574,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="242">
-        <v>110.22709378616352</v>
+        <v>110.22637001887929</v>
       </c>
       <c r="Q29" s="242">
-        <v>1.5070618521323254</v>
+        <v>1.5068985207411061</v>
       </c>
       <c r="R29" s="242">
-        <v>-1.0196541119992517</v>
+        <v>-1.0148751270517491</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
@@ -6650,34 +6650,34 @@
         <v>15.917864476386036</v>
       </c>
       <c r="D31" s="287">
-        <v>66457.194087068579</v>
+        <v>66457.0527077934</v>
       </c>
       <c r="E31" s="287">
-        <v>66528.474511820066</v>
+        <v>66528.348800826978</v>
       </c>
       <c r="F31" s="287">
-        <v>66458.482834498151</v>
+        <v>66458.04583773129</v>
       </c>
       <c r="G31" s="288">
-        <v>66127.597239679628</v>
+        <v>66127.167256773741</v>
       </c>
       <c r="H31" s="287">
-        <v>65634.500719199292</v>
+        <v>65634.028205145223</v>
       </c>
       <c r="I31" s="287">
-        <v>65043.775205157042</v>
+        <v>65043.227063519575</v>
       </c>
       <c r="J31" s="287">
-        <v>63535.091581982393</v>
+        <v>63534.504013292266</v>
       </c>
       <c r="K31" s="287">
-        <v>61852.086065111973</v>
+        <v>61851.434425287378</v>
       </c>
       <c r="L31" s="287">
-        <v>60071.056391659375</v>
+        <v>60070.392217957844</v>
       </c>
       <c r="M31" s="287">
-        <v>63315.06433752177</v>
+        <v>63314.356667930057</v>
       </c>
       <c r="N31" s="287">
         <v>60011</v>
@@ -6686,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="286">
-        <v>110.19246011511162</v>
+        <v>110.19174360829472</v>
       </c>
       <c r="Q31" s="286">
-        <v>1.4990457603899325</v>
+        <v>1.4988839645231546</v>
       </c>
       <c r="R31" s="286">
-        <v>-1.015732094981096</v>
+        <v>-1.0109995382158967</v>
       </c>
     </row>
     <row r="32" outlineLevel="2">
@@ -6706,34 +6706,34 @@
         <v>15.750855578370979</v>
       </c>
       <c r="D32" s="287">
-        <v>68410.612632622273</v>
+        <v>68410.4712533471</v>
       </c>
       <c r="E32" s="287">
-        <v>68480.704822342566</v>
+        <v>68480.579111349463</v>
       </c>
       <c r="F32" s="287">
-        <v>68409.579295754753</v>
+        <v>68409.142298987877</v>
       </c>
       <c r="G32" s="288">
-        <v>68074.601151040959</v>
+        <v>68074.171168135072</v>
       </c>
       <c r="H32" s="287">
-        <v>67572.9487603268</v>
+        <v>67572.476246272723</v>
       </c>
       <c r="I32" s="287">
-        <v>66973.729442675583</v>
+        <v>66973.181301038116</v>
       </c>
       <c r="J32" s="287">
-        <v>65448.24241551647</v>
+        <v>65447.654846826343</v>
       </c>
       <c r="K32" s="287">
-        <v>63748.675806219253</v>
+        <v>63748.024166394658</v>
       </c>
       <c r="L32" s="287">
-        <v>61951.323447718809</v>
+        <v>61950.659274017271</v>
       </c>
       <c r="M32" s="287">
-        <v>65217.351672487675</v>
+        <v>65216.64400289597</v>
       </c>
       <c r="N32" s="287">
         <v>61817</v>
@@ -6742,13 +6742,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="286">
-        <v>110.12278362107666</v>
+        <v>110.12208804719587</v>
       </c>
       <c r="Q32" s="286">
-        <v>1.4709399150521827</v>
+        <v>1.4707825692160101</v>
       </c>
       <c r="R32" s="286">
-        <v>-1.1860800947275325</v>
+        <v>-1.1814839708113218</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
@@ -6930,34 +6930,34 @@
         <v>14.056125941136209</v>
       </c>
       <c r="D36" s="287">
-        <v>91075.431714127539</v>
+        <v>91075.290334852369</v>
       </c>
       <c r="E36" s="287">
-        <v>90987.199982327671</v>
+        <v>90987.074271334583</v>
       </c>
       <c r="F36" s="287">
-        <v>90702.22736470183</v>
+        <v>90701.790367934969</v>
       </c>
       <c r="G36" s="288">
-        <v>90094.458963162659</v>
+        <v>90094.028980256786</v>
       </c>
       <c r="H36" s="287">
-        <v>89290.478777502678</v>
+        <v>89290.006263448609</v>
       </c>
       <c r="I36" s="287">
-        <v>88398.67119410327</v>
+        <v>88398.1230524658</v>
       </c>
       <c r="J36" s="287">
-        <v>86315.374343016869</v>
+        <v>86314.786774326742</v>
       </c>
       <c r="K36" s="287">
-        <v>84091.68421068594</v>
+        <v>84091.032570861353</v>
       </c>
       <c r="L36" s="287">
-        <v>81800.88184298994</v>
+        <v>81800.21766928841</v>
       </c>
       <c r="M36" s="287">
-        <v>86051.011652015775</v>
+        <v>86050.30398242407</v>
       </c>
       <c r="N36" s="287">
         <v>81371</v>
@@ -6966,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="286">
-        <v>110.72059943120111</v>
+        <v>110.72007100841428</v>
       </c>
       <c r="Q36" s="286">
-        <v>1.7769610429195155</v>
+        <v>1.7768436144544979</v>
       </c>
       <c r="R36" s="286">
-        <v>-1.0010475413354774</v>
+        <v>-0.99757387177072077</v>
       </c>
     </row>
     <row r="37" outlineLevel="2">
@@ -7378,34 +7378,34 @@
         <v>12.492813141683778</v>
       </c>
       <c r="D44" s="287">
-        <v>111878.1187316033</v>
+        <v>111877.97735232813</v>
       </c>
       <c r="E44" s="287">
-        <v>111677.43159169896</v>
+        <v>111677.30588070588</v>
       </c>
       <c r="F44" s="287">
-        <v>111243.3665621421</v>
+        <v>111242.92956537522</v>
       </c>
       <c r="G44" s="288">
-        <v>110420.2559387357</v>
+        <v>110419.82595582983</v>
       </c>
       <c r="H44" s="287">
-        <v>109369.7763756788</v>
+        <v>109369.30386162475</v>
       </c>
       <c r="I44" s="287">
-        <v>108238.86120111797</v>
+        <v>108238.31305948047</v>
       </c>
       <c r="J44" s="287">
-        <v>105698.02088703502</v>
+        <v>105697.43331834489</v>
       </c>
       <c r="K44" s="287">
-        <v>103042.13296188586</v>
+        <v>103041.48132206127</v>
       </c>
       <c r="L44" s="287">
-        <v>100342.15792949205</v>
+        <v>100341.49375579054</v>
       </c>
       <c r="M44" s="287">
-        <v>105366.07889418128</v>
+        <v>105365.37122458957</v>
       </c>
       <c r="N44" s="287">
         <v>98366.000000000015</v>
@@ -7414,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="286">
-        <v>112.25449437685347</v>
+        <v>112.25405725131633</v>
       </c>
       <c r="Q44" s="286">
-        <v>1.8914029837503079</v>
+        <v>1.8913076168596654</v>
       </c>
       <c r="R44" s="286">
-        <v>-0.88983231356051973</v>
+        <v>-0.8869976350562534</v>
       </c>
     </row>
     <row r="45" outlineLevel="2">
@@ -7658,34 +7658,34 @@
         <v>9.54962354551677</v>
       </c>
       <c r="D49" s="287">
-        <v>152770.9171358539</v>
+        <v>152770.78563797919</v>
       </c>
       <c r="E49" s="287">
-        <v>152564.41570475427</v>
+        <v>152564.30301795469</v>
       </c>
       <c r="F49" s="287">
-        <v>152111.83133925858</v>
+        <v>152111.39543084821</v>
       </c>
       <c r="G49" s="288">
-        <v>151248.9796795036</v>
+        <v>151248.54968687423</v>
       </c>
       <c r="H49" s="287">
-        <v>150150.5276617381</v>
+        <v>150150.05442601166</v>
       </c>
       <c r="I49" s="287">
-        <v>148971.1584624075</v>
+        <v>148970.60893875719</v>
       </c>
       <c r="J49" s="287">
-        <v>146333.33198756696</v>
+        <v>146332.74348142685</v>
       </c>
       <c r="K49" s="287">
-        <v>143583.611239605</v>
+        <v>143582.96084219767</v>
       </c>
       <c r="L49" s="287">
-        <v>140792.91049940675</v>
+        <v>140792.25148651825</v>
       </c>
       <c r="M49" s="287">
-        <v>145987.21235921379</v>
+        <v>145986.50226415772</v>
       </c>
       <c r="N49" s="287">
         <v>139189</v>
@@ -7694,13 +7694,13 @@
         <v>5.2675021901823005</v>
       </c>
       <c r="P49" s="286">
-        <v>108.66067877297301</v>
+        <v>108.6603698458097</v>
       </c>
       <c r="Q49" s="286">
-        <v>1.4457272079217889</v>
+        <v>1.4456586048673372</v>
       </c>
       <c r="R49" s="286">
-        <v>-0.61002792412723028</v>
+        <v>-0.6079586418202777</v>
       </c>
     </row>
     <row r="51">
@@ -8262,34 +8262,34 @@
         <v>7.520876112251881</v>
       </c>
       <c r="D63" s="287">
-        <v>-197071.74972571107</v>
+        <v>-197071.88122358581</v>
       </c>
       <c r="E63" s="287">
-        <v>-197137.08444874003</v>
+        <v>-197137.19713553961</v>
       </c>
       <c r="F63" s="287">
-        <v>-197325.98869713489</v>
+        <v>-197326.42460554524</v>
       </c>
       <c r="G63" s="288">
-        <v>-197765.14163631437</v>
+        <v>-197765.57162894373</v>
       </c>
       <c r="H63" s="287">
-        <v>-198333.9274826383</v>
+        <v>-198334.40071836475</v>
       </c>
       <c r="I63" s="287">
-        <v>-198996.55875006059</v>
+        <v>-198997.10827371091</v>
       </c>
       <c r="J63" s="287">
-        <v>-200635.94784696968</v>
+        <v>-200636.53635310978</v>
       </c>
       <c r="K63" s="287">
-        <v>-202430.54559270846</v>
+        <v>-202431.19599011578</v>
       </c>
       <c r="L63" s="287">
-        <v>-204305.382757402</v>
+        <v>-204306.04177029053</v>
       </c>
       <c r="M63" s="287">
-        <v>-200632.06166218672</v>
+        <v>-200632.77175724279</v>
       </c>
       <c r="N63" s="287">
         <v>14750</v>
@@ -8298,13 +8298,13 @@
         <v>5.2675021901823005</v>
       </c>
       <c r="P63" s="286">
-        <v>-1340.8163331424037</v>
+        <v>-1340.8192483466705</v>
       </c>
       <c r="Q63" s="286">
-        <v>-0.57047168062713038</v>
+        <v>-0.57041483016992867</v>
       </c>
       <c r="R63" s="286">
-        <v>0.33393660288771032</v>
+        <v>0.33235199013980854</v>
       </c>
     </row>
   </sheetData>
